--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H2">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I2">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J2">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N2">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O2">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P2">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q2">
-        <v>9218.866528874874</v>
+        <v>4279.970649656812</v>
       </c>
       <c r="R2">
-        <v>36875.4661154995</v>
+        <v>17119.88259862725</v>
       </c>
       <c r="S2">
-        <v>0.3695438027164511</v>
+        <v>0.5120419551058379</v>
       </c>
       <c r="T2">
-        <v>0.2626819409933201</v>
+        <v>0.4070497403868965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H3">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I3">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J3">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N3">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O3">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P3">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q3">
-        <v>54.498197954662</v>
+        <v>109.1535530388333</v>
       </c>
       <c r="R3">
-        <v>326.989187727972</v>
+        <v>654.921318233</v>
       </c>
       <c r="S3">
-        <v>0.002184593002868613</v>
+        <v>0.01305878083748883</v>
       </c>
       <c r="T3">
-        <v>0.00232930356045343</v>
+        <v>0.01557169279782109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H4">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I4">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J4">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N4">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O4">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P4">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q4">
-        <v>28.47953426023</v>
+        <v>33.74413339903125</v>
       </c>
       <c r="R4">
-        <v>113.91813704092</v>
+        <v>134.976533596125</v>
       </c>
       <c r="S4">
-        <v>0.00114161923888959</v>
+        <v>0.004037039842873134</v>
       </c>
       <c r="T4">
-        <v>0.0008114944841246126</v>
+        <v>0.003209260498260157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H5">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I5">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J5">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N5">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O5">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P5">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q5">
-        <v>3980.228401269872</v>
+        <v>1319.016353915292</v>
       </c>
       <c r="R5">
-        <v>23881.37040761923</v>
+        <v>7914.09812349175</v>
       </c>
       <c r="S5">
-        <v>0.1595498464456891</v>
+        <v>0.1578028841691977</v>
       </c>
       <c r="T5">
-        <v>0.1701186559270935</v>
+        <v>0.1881690232398001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>278.978638</v>
+        <v>171.4863125</v>
       </c>
       <c r="H6">
-        <v>557.957276</v>
+        <v>342.972625</v>
       </c>
       <c r="I6">
-        <v>0.5355226889678238</v>
+        <v>0.6883220549653215</v>
       </c>
       <c r="J6">
-        <v>0.4392497582540043</v>
+        <v>0.6156469349130842</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N6">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O6">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P6">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q6">
-        <v>77.40504092796267</v>
+        <v>11.54657355535417</v>
       </c>
       <c r="R6">
-        <v>464.430245567776</v>
+        <v>69.279441332125</v>
       </c>
       <c r="S6">
-        <v>0.003102827563925359</v>
+        <v>0.001381395009923956</v>
       </c>
       <c r="T6">
-        <v>0.003308363289012629</v>
+        <v>0.001647217990306308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>172.715382</v>
       </c>
       <c r="I7">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J7">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N7">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O7">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P7">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q7">
-        <v>1902.463530967125</v>
+        <v>1436.881958541666</v>
       </c>
       <c r="R7">
-        <v>11414.78118580275</v>
+        <v>8621.291751249997</v>
       </c>
       <c r="S7">
-        <v>0.07626139347618495</v>
+        <v>0.1719039469036956</v>
       </c>
       <c r="T7">
-        <v>0.08131305699320739</v>
+        <v>0.2049835650991786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>172.715382</v>
       </c>
       <c r="I8">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J8">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N8">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O8">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P8">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q8">
-        <v>11.246592386106</v>
+        <v>36.645291267312</v>
       </c>
       <c r="R8">
-        <v>101.219331474954</v>
+        <v>329.807621405808</v>
       </c>
       <c r="S8">
-        <v>0.0004508264117878202</v>
+        <v>0.004384125061101039</v>
       </c>
       <c r="T8">
-        <v>0.0007210346948458366</v>
+        <v>0.007841648790373048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>172.715382</v>
       </c>
       <c r="I9">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J9">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N9">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O9">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P9">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q9">
-        <v>5.877216590490001</v>
+        <v>11.328660978453</v>
       </c>
       <c r="R9">
-        <v>35.26329954294</v>
+        <v>67.97196587071799</v>
       </c>
       <c r="S9">
-        <v>0.0002355917575588287</v>
+        <v>0.001355324648453704</v>
       </c>
       <c r="T9">
-        <v>0.0002511976917323602</v>
+        <v>0.001616130887689691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>172.715382</v>
       </c>
       <c r="I10">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J10">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N10">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O10">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P10">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q10">
-        <v>821.3850753363361</v>
+        <v>442.823317518372</v>
       </c>
       <c r="R10">
-        <v>7392.465678027024</v>
+        <v>3985.409857665348</v>
       </c>
       <c r="S10">
-        <v>0.03292571416275553</v>
+        <v>0.05297796079203063</v>
       </c>
       <c r="T10">
-        <v>0.05266014067316244</v>
+        <v>0.09475883018193934</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>172.715382</v>
       </c>
       <c r="I11">
-        <v>0.1105138449044318</v>
+        <v>0.2310851226340305</v>
       </c>
       <c r="J11">
-        <v>0.1359695321730117</v>
+        <v>0.310029686890149</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N11">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O11">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P11">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q11">
-        <v>15.973793200848</v>
+        <v>3.876443224206001</v>
       </c>
       <c r="R11">
-        <v>143.764138807632</v>
+        <v>34.887989017854</v>
       </c>
       <c r="S11">
-        <v>0.0006403190961446755</v>
+        <v>0.0004637652287494956</v>
       </c>
       <c r="T11">
-        <v>0.001024102120063746</v>
+        <v>0.0008295119309683279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H12">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I12">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J12">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N12">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O12">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P12">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q12">
-        <v>6.647917553583333</v>
+        <v>1.023647700972</v>
       </c>
       <c r="R12">
-        <v>39.88750532150001</v>
+        <v>6.141886205832001</v>
       </c>
       <c r="S12">
-        <v>0.0002664857686356439</v>
+        <v>0.0001224659262995946</v>
       </c>
       <c r="T12">
-        <v>0.0002841381661838576</v>
+        <v>0.000146032145440661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H13">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I13">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J13">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N13">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O13">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P13">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q13">
-        <v>0.03929979088933334</v>
+        <v>0.02610643688177778</v>
       </c>
       <c r="R13">
-        <v>0.353698118004</v>
+        <v>0.234957931936</v>
       </c>
       <c r="S13">
-        <v>1.5753557257519E-06</v>
+        <v>3.123290339120555E-06</v>
       </c>
       <c r="T13">
-        <v>2.519564305220351E-06</v>
+        <v>5.586461510200993E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H14">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I14">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J14">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N14">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O14">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P14">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q14">
-        <v>0.02053718807333334</v>
+        <v>0.008070640525999999</v>
       </c>
       <c r="R14">
-        <v>0.12322312844</v>
+        <v>0.048423843156</v>
       </c>
       <c r="S14">
-        <v>8.232455209055729E-07</v>
+        <v>9.655455357435245E-07</v>
       </c>
       <c r="T14">
-        <v>8.777784788538107E-07</v>
+        <v>1.151346259043044E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H15">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I15">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J15">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N15">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O15">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P15">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q15">
-        <v>2.870225984202667</v>
+        <v>0.3154713358462222</v>
       </c>
       <c r="R15">
-        <v>25.832033857824</v>
+        <v>2.839242022616</v>
       </c>
       <c r="S15">
-        <v>0.0001150547327630388</v>
+        <v>3.774197834732876E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001840141836397356</v>
+        <v>6.750704752461794E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2011773333333333</v>
+        <v>0.04101466666666666</v>
       </c>
       <c r="H16">
-        <v>0.6035320000000001</v>
+        <v>0.123044</v>
       </c>
       <c r="I16">
-        <v>0.0003861766165266134</v>
+        <v>0.0001646271310645721</v>
       </c>
       <c r="J16">
-        <v>0.0004751282875976972</v>
+        <v>0.0002208679525354116</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N16">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O16">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P16">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q16">
-        <v>0.05581839467022223</v>
+        <v>0.002761613207555556</v>
       </c>
       <c r="R16">
-        <v>0.5023655520320001</v>
+        <v>0.024854518868</v>
       </c>
       <c r="S16">
-        <v>2.237513881273113E-06</v>
+        <v>3.303905427847355E-07</v>
       </c>
       <c r="T16">
-        <v>3.578594990029972E-06</v>
+        <v>5.909518008886258E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H17">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I17">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J17">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N17">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O17">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P17">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q17">
-        <v>449.745415509</v>
+        <v>469.982329742718</v>
       </c>
       <c r="R17">
-        <v>1798.981662036</v>
+        <v>1879.929318970872</v>
       </c>
       <c r="S17">
-        <v>0.01802831514925624</v>
+        <v>0.05622717786766935</v>
       </c>
       <c r="T17">
-        <v>0.01281502431223179</v>
+        <v>0.04469801336687716</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H18">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I18">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J18">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N18">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O18">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P18">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q18">
-        <v>2.658712392336</v>
+        <v>11.986119848976</v>
       </c>
       <c r="R18">
-        <v>15.952274354016</v>
+        <v>71.916719093856</v>
       </c>
       <c r="S18">
-        <v>0.0001065760833737887</v>
+        <v>0.001433980918092204</v>
       </c>
       <c r="T18">
-        <v>0.0001136358352039809</v>
+        <v>0.001709923048127604</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H19">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I19">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J19">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N19">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O19">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P19">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q19">
-        <v>1.38938338344</v>
+        <v>3.705433454619</v>
       </c>
       <c r="R19">
-        <v>5.55753353376</v>
+        <v>14.821733818476</v>
       </c>
       <c r="S19">
-        <v>5.569426754789233E-05</v>
+        <v>0.0004433061686462333</v>
       </c>
       <c r="T19">
-        <v>3.958902353155428E-05</v>
+        <v>0.0003524079600509706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H20">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I20">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J20">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N20">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O20">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P20">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q20">
-        <v>194.176742937216</v>
+        <v>144.840801427356</v>
       </c>
       <c r="R20">
-        <v>1165.060457623296</v>
+        <v>869.044808564136</v>
       </c>
       <c r="S20">
-        <v>0.00778369138541712</v>
+        <v>0.01732828872270576</v>
       </c>
       <c r="T20">
-        <v>0.008299294208905423</v>
+        <v>0.02066278560455645</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.610064</v>
+        <v>18.830862</v>
       </c>
       <c r="H21">
-        <v>27.220128</v>
+        <v>37.661724</v>
       </c>
       <c r="I21">
-        <v>0.0261256493420266</v>
+        <v>0.07558444426057843</v>
       </c>
       <c r="J21">
-        <v>0.02142894296380329</v>
+        <v>0.06760401050708505</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N21">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O21">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P21">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q21">
-        <v>3.776230210688</v>
+        <v>1.267925877138</v>
       </c>
       <c r="R21">
-        <v>22.657381264128</v>
+        <v>7.607555262828</v>
       </c>
       <c r="S21">
-        <v>0.0001513724564315503</v>
+        <v>0.0001516905834648853</v>
       </c>
       <c r="T21">
-        <v>0.0001613995839305531</v>
+        <v>0.0001808805274728583</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H22">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I22">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J22">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N22">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O22">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P22">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q22">
-        <v>5624.366349382917</v>
+        <v>26.450216670228</v>
       </c>
       <c r="R22">
-        <v>33746.1980962975</v>
+        <v>158.701300021368</v>
       </c>
       <c r="S22">
-        <v>0.2254561037532532</v>
+        <v>0.003164419049902261</v>
       </c>
       <c r="T22">
-        <v>0.2403906377567002</v>
+        <v>0.003773350815965332</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H23">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I23">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J23">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N23">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O23">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P23">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q23">
-        <v>33.24897152140667</v>
+        <v>0.6745689081848889</v>
       </c>
       <c r="R23">
-        <v>299.24074369266</v>
+        <v>6.071120173664</v>
       </c>
       <c r="S23">
-        <v>0.001332804996573823</v>
+        <v>8.070325964228222E-05</v>
       </c>
       <c r="T23">
-        <v>0.002131637851878792</v>
+        <v>0.0001443495816230502</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H24">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I24">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J24">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N24">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O24">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P24">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q24">
-        <v>17.37516576876667</v>
+        <v>0.208538729074</v>
       </c>
       <c r="R24">
-        <v>104.2509946126</v>
+        <v>1.251232374444</v>
       </c>
       <c r="S24">
-        <v>0.0006964939573544719</v>
+        <v>2.494890439468311E-05</v>
       </c>
       <c r="T24">
-        <v>0.0007426307108782965</v>
+        <v>2.974984263162817E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H25">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I25">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J25">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N25">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O25">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P25">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q25">
-        <v>2428.309663974774</v>
+        <v>8.15152046788711</v>
       </c>
       <c r="R25">
-        <v>21854.78697577296</v>
+        <v>73.363684210984</v>
       </c>
       <c r="S25">
-        <v>0.09734025160117656</v>
+        <v>0.0009752217524661891</v>
       </c>
       <c r="T25">
-        <v>0.155682313134981</v>
+        <v>0.001744326717187992</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>170.2029266666667</v>
+        <v>1.059785333333333</v>
       </c>
       <c r="H26">
-        <v>510.60878</v>
+        <v>3.179356</v>
       </c>
       <c r="I26">
-        <v>0.3267186678240456</v>
+        <v>0.004253829986939094</v>
       </c>
       <c r="J26">
-        <v>0.4019748336024425</v>
+        <v>0.005707046667055495</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N26">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O26">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P26">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q26">
-        <v>47.22427709569779</v>
+        <v>0.07135781932577778</v>
       </c>
       <c r="R26">
-        <v>425.01849386128</v>
+        <v>0.642220373932</v>
       </c>
       <c r="S26">
-        <v>0.001893013515687534</v>
+        <v>8.537020533678241E-06</v>
       </c>
       <c r="T26">
-        <v>0.003027614148004275</v>
+        <v>1.526970964749242E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H27">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I27">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J27">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>33.0450625</v>
+        <v>24.958089</v>
       </c>
       <c r="N27">
-        <v>66.090125</v>
+        <v>49.916178</v>
       </c>
       <c r="O27">
-        <v>0.6900618971508313</v>
+        <v>0.7438988063975884</v>
       </c>
       <c r="P27">
-        <v>0.5980240991764404</v>
+        <v>0.6611739899986068</v>
       </c>
       <c r="Q27">
-        <v>12.61790463495833</v>
+        <v>3.668115298419</v>
       </c>
       <c r="R27">
-        <v>75.70742780975</v>
+        <v>22.008691790514</v>
       </c>
       <c r="S27">
-        <v>0.0005057962870501739</v>
+        <v>0.0004388415441836508</v>
       </c>
       <c r="T27">
-        <v>0.0005393009547970947</v>
+        <v>0.0005232881842485465</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H28">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I28">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J28">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.195349</v>
+        <v>0.6365146666666667</v>
       </c>
       <c r="N28">
-        <v>0.586047</v>
+        <v>1.909544</v>
       </c>
       <c r="O28">
-        <v>0.004079365912729557</v>
+        <v>0.01897190529242412</v>
       </c>
       <c r="P28">
-        <v>0.005302913699286472</v>
+        <v>0.02529321907534466</v>
       </c>
       <c r="Q28">
-        <v>0.07459193192733334</v>
+        <v>0.09354919707466666</v>
       </c>
       <c r="R28">
-        <v>0.6713273873459999</v>
+        <v>0.841942773672</v>
       </c>
       <c r="S28">
-        <v>2.990062399759856E-06</v>
+        <v>1.119192576064385E-05</v>
       </c>
       <c r="T28">
-        <v>4.782192599211651E-06</v>
+        <v>2.001839588965939E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H29">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I29">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J29">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.102085</v>
+        <v>0.1967745</v>
       </c>
       <c r="N29">
-        <v>0.20417</v>
+        <v>0.393549</v>
       </c>
       <c r="O29">
-        <v>0.002131785006327122</v>
+        <v>0.005865045023258081</v>
       </c>
       <c r="P29">
-        <v>0.00184745573304414</v>
+        <v>0.005212826242224749</v>
       </c>
       <c r="Q29">
-        <v>0.03898006834333334</v>
+        <v>0.0289201450395</v>
       </c>
       <c r="R29">
-        <v>0.23388041006</v>
+        <v>0.173520870237</v>
       </c>
       <c r="S29">
-        <v>1.562539455433532E-06</v>
+        <v>3.459913354582788E-06</v>
       </c>
       <c r="T29">
-        <v>1.666044298462483E-06</v>
+        <v>4.125707333258393E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H30">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I30">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J30">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>14.267144</v>
+        <v>7.691671333333333</v>
       </c>
       <c r="N30">
-        <v>42.801432</v>
+        <v>23.075014</v>
       </c>
       <c r="O30">
-        <v>0.2979329349298129</v>
+        <v>0.2292573411397489</v>
       </c>
       <c r="P30">
-        <v>0.3872936813973595</v>
+        <v>0.3056443759707266</v>
       </c>
       <c r="Q30">
-        <v>5.447756753530667</v>
+        <v>1.130452627531333</v>
       </c>
       <c r="R30">
-        <v>49.029810781776</v>
+        <v>10.174073647782</v>
       </c>
       <c r="S30">
-        <v>0.0002183766020115764</v>
+        <v>0.0001352437250012659</v>
       </c>
       <c r="T30">
-        <v>0.0003492632695774583</v>
+        <v>0.0002419031797180023</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3818393333333334</v>
+        <v>0.146971</v>
       </c>
       <c r="H31">
-        <v>1.145518</v>
+        <v>0.440913</v>
       </c>
       <c r="I31">
-        <v>0.0007329723451454655</v>
+        <v>0.0005899210220658763</v>
       </c>
       <c r="J31">
-        <v>0.0009018047191405574</v>
+        <v>0.0007914530700907476</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2774586666666667</v>
+        <v>0.06733233333333334</v>
       </c>
       <c r="N31">
-        <v>0.832376</v>
+        <v>0.201997</v>
       </c>
       <c r="O31">
-        <v>0.005794017000298915</v>
+        <v>0.002006902146980533</v>
       </c>
       <c r="P31">
-        <v>0.007531849993869564</v>
+        <v>0.002675588713097156</v>
       </c>
       <c r="Q31">
-        <v>0.1059446323075556</v>
+        <v>0.009895900362333334</v>
       </c>
       <c r="R31">
-        <v>0.9535016907680001</v>
+        <v>0.089063103261</v>
       </c>
       <c r="S31">
-        <v>4.246854228521791E-06</v>
+        <v>1.183913765732958E-06</v>
       </c>
       <c r="T31">
-        <v>6.792257868330352E-06</v>
+        <v>2.117602901280897E-06</v>
       </c>
     </row>
   </sheetData>
